--- a/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>85.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.80</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.49</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.22</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0671</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7114</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8224</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.25</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1067,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1083,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.82</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.25</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.14</v>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1186,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.47</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.82</v>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1330,14 +1395,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.25</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -1346,14 +1517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6">
@@ -1362,13 +1533,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2696</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>36.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1381</t>
+          <t>0.6716</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -695,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005402</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发资源优选股票A</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>21.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0671</t>
+          <t>0.6890</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -733,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>35.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.29</t>
+          <t>20.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8103</t>
+          <t>0.4907</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -771,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>014887</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>招商安福1年定期开放债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.03</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>27.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7114</t>
+          <t>0.2359</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -809,32 +923,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>001219</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>上投摩根动态多因子策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3036</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -847,74 +961,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010235</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发资源优选股票C</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>62.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2290</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1309</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,7 +1119,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1073,36 +1149,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>005402</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>广发资源优选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.53</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6890</t>
+          <t>1.0671</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1111,36 +1187,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.05</t>
+          <t>19.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>80.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4907</t>
+          <t>0.8103</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1149,36 +1225,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014887</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商安福1年定期开放债券</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2359</t>
+          <t>0.7114</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1187,32 +1263,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001219</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根动态多因子策略混合</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>88.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.3036</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1225,36 +1301,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>010235</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>广发资源优选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>62.70</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0168</t>
+          <t>0.2290</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,7 +1403,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1319,112 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.70</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6716</t>
+          <t>0.1381</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>014887</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商安福1年定期开放债券</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>29.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3080</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012233</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商安盈债券C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1438,128 +1476,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.27</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601918-新集能源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.98</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.47</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.82</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3.25</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -998,7 +1109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1376,7 +1487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +1581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
